--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360AE363-5654-4A65-A0F2-DA9EA4D27CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8554E04C-E2BF-4696-9794-726E2D9AC72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>Wg</t>
   </si>
@@ -89,6 +90,12 @@
   </si>
   <si>
     <t>NGC-3475/T1813/T1881/T1816/T1818/T1820</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2653/T2656</t>
   </si>
 </sst>
 </file>
@@ -512,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB1E1A-05DD-49D0-9147-9D7D528C068A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,4 +819,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507003F2-5615-49E7-92AB-7299EBED7427}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8554E04C-E2BF-4696-9794-726E2D9AC72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE85831A-66E5-4E64-893B-2B80CA211BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -96,6 +97,12 @@
   </si>
   <si>
     <t>NGC-3476/T2653/T2656</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2459/T-2460/T2461/T2462</t>
   </si>
 </sst>
 </file>
@@ -520,7 +527,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507003F2-5615-49E7-92AB-7299EBED7427}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -921,4 +928,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E824B374-D95B-4CB0-93D1-8D9DC83892E6}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE85831A-66E5-4E64-893B-2B80CA211BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC135BE8-7F2D-4F2C-B8EA-60BD33BC138B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>NGC-3479/T2459/T-2460/T2461/T2462</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3236/T3235/T3234/T3237/T3228</t>
   </si>
 </sst>
 </file>
@@ -934,6 +941,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E824B374-D95B-4CB0-93D1-8D9DC83892E6}">
   <dimension ref="A1:D11"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DF2108-9AF5-49C2-9F77-C9D78B192BF7}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -959,14 +1068,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -976,12 +1085,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC135BE8-7F2D-4F2C-B8EA-60BD33BC138B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2917DCB6-F1D3-432D-B75B-248056DB7CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -110,6 +111,12 @@
   </si>
   <si>
     <t>NGC-2930/T3236/T3235/T3234/T3237/T3228</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2454/T2453/T2452/T2455/NGC-3145/T2446</t>
   </si>
 </sst>
 </file>
@@ -534,7 +541,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DF2108-9AF5-49C2-9F77-C9D78B192BF7}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,4 +1146,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E723440C-4708-4DE5-AB37-967D9AD54BC0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2917DCB6-F1D3-432D-B75B-248056DB7CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DF75F-319E-471D-BAD7-5CF0C199EAC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>NGC-3145/T2454/T2453/T2452/T2455/NGC-3145/T2446</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2064/T2063/T2062/T2065/T2056</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E723440C-4708-4DE5-AB37-967D9AD54BC0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,4 +1255,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF168B1-5E78-48DC-8E2B-ED2962406F3F}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DF75F-319E-471D-BAD7-5CF0C199EAC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD580B7-8C67-49BA-BE93-20522CFF99F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Croatia" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -124,6 +125,12 @@
   </si>
   <si>
     <t>NGC-3103/T2064/T2063/T2062/T2065/T2056</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2485/T2488/T2486</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -551,15 +558,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -567,7 +574,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -579,7 +586,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -589,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -601,36 +608,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -653,15 +660,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -669,7 +676,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,7 +688,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -691,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -703,36 +710,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -755,15 +762,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -771,7 +778,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -783,7 +790,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,36 +812,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -857,15 +864,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -873,7 +880,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -885,7 +892,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -895,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,36 +914,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -959,15 +966,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -975,7 +982,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -987,7 +994,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -997,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1009,36 +1016,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1061,15 +1068,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1084,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1089,7 +1096,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1111,36 +1118,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1163,15 +1170,15 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1186,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1191,7 +1198,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1213,36 +1220,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1261,19 +1268,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF168B1-5E78-48DC-8E2B-ED2962406F3F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1288,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1293,7 +1300,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1315,36 +1322,138 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9EA0CD-16F7-48FA-956E-4582495D778A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD580B7-8C67-49BA-BE93-20522CFF99F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F910784C-FB96-46EB-93ED-F45ECB050918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Croatia" sheetId="19" r:id="rId9"/>
+    <sheet name="Greece" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -131,6 +132,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3187/T3189/T3185</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -558,15 +565,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -574,7 +581,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +593,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -596,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,36 +615,138 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32F9E4D-C71C-4FBB-81EA-7500391EC634}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -660,15 +769,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -676,7 +785,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -688,7 +797,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -698,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -710,36 +819,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -762,15 +871,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -778,7 +887,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -790,7 +899,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,36 +921,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -864,15 +973,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -880,7 +989,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -892,7 +1001,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -902,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,36 +1023,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -966,15 +1075,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="2" width="33.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -982,7 +1091,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -994,7 +1103,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,36 +1125,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1068,15 +1177,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="2" width="33.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1084,7 +1193,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1205,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1106,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1118,36 +1227,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1170,15 +1279,15 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1295,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1198,7 +1307,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1220,36 +1329,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1272,15 +1381,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +1397,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1300,7 +1409,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1322,36 +1431,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1370,19 +1479,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9EA0CD-16F7-48FA-956E-4582495D778A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1499,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1511,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1424,36 +1533,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F910784C-FB96-46EB-93ED-F45ECB050918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7E005B-CA79-4B46-89EB-EA95332A3AD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Croatia" sheetId="19" r:id="rId9"/>
     <sheet name="Greece" sheetId="20" r:id="rId10"/>
+    <sheet name="Netherlands" sheetId="21" r:id="rId11"/>
+    <sheet name="Austria" sheetId="22" r:id="rId12"/>
+    <sheet name="Denmark" sheetId="23" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -138,6 +141,27 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2199</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2306</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2798</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>Fire Brigade Panel</t>
   </si>
 </sst>
 </file>
@@ -663,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32F9E4D-C71C-4FBB-81EA-7500391EC634}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -711,6 +735,312 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E364DF-541F-4C68-A487-3376C9737AAC}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833FA323-DE07-46A7-979F-D89628505B22}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B03136-4240-419D-8BF8-005B7ADC04A2}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7E005B-CA79-4B46-89EB-EA95332A3AD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434898F-9F87-4FD8-B925-7ED204CB9E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Netherlands" sheetId="21" r:id="rId11"/>
     <sheet name="Austria" sheetId="22" r:id="rId12"/>
     <sheet name="Denmark" sheetId="23" r:id="rId13"/>
+    <sheet name="Russia" sheetId="25" r:id="rId14"/>
+    <sheet name="Finland" sheetId="26" r:id="rId15"/>
+    <sheet name="Hungary" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="45">
   <si>
     <t>Wg</t>
   </si>
@@ -162,6 +165,24 @@
   </si>
   <si>
     <t>Fire Brigade Panel</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925/</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2957/</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T3004/</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -891,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833FA323-DE07-46A7-979F-D89628505B22}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1091,6 +1112,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BC6E9D-316A-4F01-826E-AE82F3C72BD2}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6420962-674A-4553-85CC-3DA53B25B52F}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725D26D0-7F03-42B2-A0B1-EA38528EDD94}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97D46FC-4930-4BB4-BBC9-D454EC5BF909}">
   <dimension ref="A1:D11"/>

--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434898F-9F87-4FD8-B925-7ED204CB9E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C8807-4B27-4649-80DD-E175235CB789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Russia" sheetId="25" r:id="rId14"/>
     <sheet name="Finland" sheetId="26" r:id="rId15"/>
     <sheet name="Hungary" sheetId="27" r:id="rId16"/>
+    <sheet name="Norway" sheetId="28" r:id="rId17"/>
+    <sheet name="Poland" sheetId="29" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="49">
   <si>
     <t>Wg</t>
   </si>
@@ -183,6 +185,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3085/T3078/T3084</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3121/T3119/T3113</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725D26D0-7F03-42B2-A0B1-EA38528EDD94}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1372,6 +1386,210 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9682708E-7CE3-4302-A2D9-E7BCCC67209E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3206C777-CA8E-424A-AA4E-33022916F1C0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Miscellaneous_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C8807-4B27-4649-80DD-E175235CB789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D01406F-8776-44CA-8184-7AE362762039}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Hungary" sheetId="27" r:id="rId16"/>
     <sheet name="Norway" sheetId="28" r:id="rId17"/>
     <sheet name="Poland" sheetId="29" r:id="rId18"/>
+    <sheet name="UK" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -197,6 +198,15 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>GMPIM</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3355/T3357/T3349</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9682708E-7CE3-4302-A2D9-E7BCCC67209E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1633,6 +1643,113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E60167C-51B2-4C76-BFE1-329582373F64}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97D46FC-4930-4BB4-BBC9-D454EC5BF909}">
   <dimension ref="A1:D11"/>
